--- a/BotCadastrarAvaliador/bin/Debug/net6.0-windows/assets/cadastro-de-avaliador-interno-externo.xlsx
+++ b/BotCadastrarAvaliador/bin/Debug/net6.0-windows/assets/cadastro-de-avaliador-interno-externo.xlsx
@@ -1,38 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2225318\Documents\Dev\bot-cadastrar-avaliador\BotCadastrarAvaliador\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Developer\.NET\new\bot-cadastrar-avaliador\BotCadastrarAvaliador\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883B65A-1BDF-4B35-A391-1A65A1A26E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internos" sheetId="1" r:id="rId1"/>
     <sheet name="Externos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_312FCE6F_1B75_4155_8869_7AF19FCC01E7_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
-    <definedName name="Z_ADB5F798_9B33_46ED_813A_8874D882110B_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
-    <definedName name="Z_B537ACDA_06F7_4B88_8897_16E39670631A_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
-    <definedName name="Z_CA496FFB_694F_49A0_A4B3_8377D199B898_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$235</definedName>
+    <definedName name="Z_312FCE6F_1B75_4155_8869_7AF19FCC01E7_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
+    <definedName name="Z_ADB5F798_9B33_46ED_813A_8874D882110B_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
+    <definedName name="Z_B537ACDA_06F7_4B88_8897_16E39670631A_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
+    <definedName name="Z_CA496FFB_694F_49A0_A4B3_8377D199B898_.wvu.FilterData" localSheetId="1" hidden="1">Externos!$A$1:$A$234</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filtro 4" guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 1" guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filtro 2" guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 3" guid="{ADB5F798-9B33-46ED-813A-8874D882110B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 2" guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 1" guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filtro 4" guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="859">
   <si>
     <t>NOME</t>
   </si>
@@ -1097,9 +1098,6 @@
   </si>
   <si>
     <t>Aline Freitas da Silva de Carvalho</t>
-  </si>
-  <si>
-    <t>Barbara</t>
   </si>
   <si>
     <t>Karla Suzy Andrade Pitombeira</t>
@@ -2617,7 +2615,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2945,14 +2943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A726"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
@@ -2974,27 +2972,27 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,12 +3002,12 @@
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3019,17 +3017,17 @@
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,7 +3037,7 @@
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3059,7 +3057,7 @@
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,7 +3072,7 @@
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,22 +3092,22 @@
     </row>
     <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,27 +3117,27 @@
     </row>
     <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3154,12 +3152,12 @@
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3174,7 +3172,7 @@
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3189,7 +3187,7 @@
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,42 +3197,42 @@
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,12 +3247,12 @@
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3264,27 +3262,27 @@
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,7 +3292,7 @@
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3314,7 +3312,7 @@
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,17 +3332,17 @@
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3364,17 +3362,17 @@
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,7 +3402,7 @@
     </row>
     <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3414,7 +3412,7 @@
     </row>
     <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3424,7 +3422,7 @@
     </row>
     <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3434,7 +3432,7 @@
     </row>
     <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3444,7 +3442,7 @@
     </row>
     <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3454,7 +3452,7 @@
     </row>
     <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3469,17 +3467,17 @@
     </row>
     <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3494,37 +3492,37 @@
     </row>
     <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3534,7 +3532,7 @@
     </row>
     <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,7 +3547,7 @@
     </row>
     <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3564,17 +3562,17 @@
     </row>
     <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3584,22 +3582,22 @@
     </row>
     <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3609,17 +3607,17 @@
     </row>
     <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3629,7 +3627,7 @@
     </row>
     <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3644,12 +3642,12 @@
     </row>
     <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3664,7 +3662,7 @@
     </row>
     <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,12 +3672,12 @@
     </row>
     <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,7 +3687,7 @@
     </row>
     <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,12 +3697,12 @@
     </row>
     <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3714,7 +3712,7 @@
     </row>
     <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3724,22 +3722,22 @@
     </row>
     <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3769,7 +3767,7 @@
     </row>
     <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,7 +3782,7 @@
     </row>
     <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3794,7 +3792,7 @@
     </row>
     <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3807,7 @@
     </row>
     <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3819,22 +3817,22 @@
     </row>
     <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,7 +3877,7 @@
     </row>
     <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,12 +3892,12 @@
     </row>
     <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,12 +3907,12 @@
     </row>
     <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3927,7 @@
     </row>
     <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,27 +3937,27 @@
     </row>
     <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3969,12 +3967,12 @@
     </row>
     <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3994,22 +3992,22 @@
     </row>
     <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4019,22 +4017,22 @@
     </row>
     <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4044,12 +4042,12 @@
     </row>
     <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4059,12 +4057,12 @@
     </row>
     <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4079,7 +4077,7 @@
     </row>
     <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4099,17 +4097,17 @@
     </row>
     <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4124,37 +4122,37 @@
     </row>
     <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4164,12 +4162,12 @@
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,7 +4177,7 @@
     </row>
     <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4199,7 +4197,7 @@
     </row>
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4214,7 +4212,7 @@
     </row>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4244,12 +4242,12 @@
     </row>
     <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4279,12 +4277,12 @@
     </row>
     <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4294,7 +4292,7 @@
     </row>
     <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4304,17 +4302,17 @@
     </row>
     <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4329,7 +4327,7 @@
     </row>
     <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4344,12 +4342,12 @@
     </row>
     <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4359,7 +4357,7 @@
     </row>
     <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +4367,7 @@
     </row>
     <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4379,7 +4377,7 @@
     </row>
     <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4394,17 +4392,17 @@
     </row>
     <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4414,27 +4412,27 @@
     </row>
     <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4444,7 +4442,7 @@
     </row>
     <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4454,17 +4452,17 @@
     </row>
     <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4474,7 +4472,7 @@
     </row>
     <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4489,7 +4487,7 @@
     </row>
     <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4504,7 +4502,7 @@
     </row>
     <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4519,12 +4517,12 @@
     </row>
     <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,42 +4537,42 @@
     </row>
     <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4584,7 +4582,7 @@
     </row>
     <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4599,7 +4597,7 @@
     </row>
     <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4609,67 +4607,67 @@
     </row>
     <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4679,7 +4677,7 @@
     </row>
     <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4694,12 +4692,12 @@
     </row>
     <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4709,7 +4707,7 @@
     </row>
     <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4724,22 +4722,22 @@
     </row>
     <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4749,12 +4747,12 @@
     </row>
     <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,17 +4762,17 @@
     </row>
     <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,12 +4782,12 @@
     </row>
     <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,17 +4797,17 @@
     </row>
     <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4819,17 +4817,17 @@
     </row>
     <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4839,32 +4837,32 @@
     </row>
     <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,22 +4872,22 @@
     </row>
     <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4899,7 +4897,7 @@
     </row>
     <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4909,17 +4907,17 @@
     </row>
     <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4929,22 +4927,22 @@
     </row>
     <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4954,17 +4952,17 @@
     </row>
     <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4984,7 +4982,7 @@
     </row>
     <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,17 +4992,17 @@
     </row>
     <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,12 +5032,12 @@
     </row>
     <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5049,7 +5047,7 @@
     </row>
     <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5059,7 +5057,7 @@
     </row>
     <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5069,17 +5067,17 @@
     </row>
     <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5094,12 +5092,12 @@
     </row>
     <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5109,17 +5107,17 @@
     </row>
     <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5134,12 +5132,12 @@
     </row>
     <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5149,37 +5147,37 @@
     </row>
     <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5189,12 +5187,12 @@
     </row>
     <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5219,17 +5217,17 @@
     </row>
     <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5239,7 +5237,7 @@
     </row>
     <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,12 +5257,12 @@
     </row>
     <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5279,17 +5277,17 @@
     </row>
     <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5299,17 +5297,17 @@
     </row>
     <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5339,17 +5337,17 @@
     </row>
     <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,7 +5357,7 @@
     </row>
     <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5374,42 +5372,42 @@
     </row>
     <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5419,7 +5417,7 @@
     </row>
     <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5434,7 +5432,7 @@
     </row>
     <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5449,7 +5447,7 @@
     </row>
     <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5469,17 +5467,17 @@
     </row>
     <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5504,7 +5502,7 @@
     </row>
     <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5524,12 +5522,12 @@
     </row>
     <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5539,12 +5537,12 @@
     </row>
     <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5564,17 +5562,17 @@
     </row>
     <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5584,12 +5582,12 @@
     </row>
     <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5599,7 +5597,7 @@
     </row>
     <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5614,17 +5612,17 @@
     </row>
     <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5649,7 +5647,7 @@
     </row>
     <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5669,17 +5667,17 @@
     </row>
     <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5694,17 +5692,17 @@
     </row>
     <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5714,7 +5712,7 @@
     </row>
     <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5759,7 +5757,7 @@
     </row>
     <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5774,17 +5772,17 @@
     </row>
     <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5799,7 +5797,7 @@
     </row>
     <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5809,7 +5807,7 @@
     </row>
     <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5819,12 +5817,12 @@
     </row>
     <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5834,7 +5832,7 @@
     </row>
     <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5854,12 +5852,12 @@
     </row>
     <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5874,7 +5872,7 @@
     </row>
     <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5884,7 +5882,7 @@
     </row>
     <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5904,12 +5902,12 @@
     </row>
     <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,7 +5932,7 @@
     </row>
     <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5944,7 +5942,7 @@
     </row>
     <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5954,17 +5952,17 @@
     </row>
     <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5979,7 +5977,7 @@
     </row>
     <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5989,12 +5987,12 @@
     </row>
     <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6009,7 +6007,7 @@
     </row>
     <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6019,7 +6017,7 @@
     </row>
     <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6029,22 +6027,22 @@
     </row>
     <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6059,7 +6057,7 @@
     </row>
     <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6074,7 +6072,7 @@
     </row>
     <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6084,12 +6082,12 @@
     </row>
     <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6393,7 +6391,7 @@
       <c r="A726" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B670">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B670">
     <sortCondition ref="A2:A670"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6402,15 +6400,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A235"/>
+  <dimension ref="A1:A234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6431,7 +6429,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -6446,7 +6444,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -6491,32 +6489,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -6531,7 +6529,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -6551,62 +6549,62 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>300</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>318</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -6616,47 +6614,47 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
@@ -6666,72 +6664,72 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>447</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>441</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -6751,127 +6749,127 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>442</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>287</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>463</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>464</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>324</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>465</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>466</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>305</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>467</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>468</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
@@ -6881,67 +6879,67 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>291</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>469</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>288</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>340</v>
+        <v>470</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
@@ -6966,12 +6964,12 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>475</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
@@ -6981,12 +6979,12 @@
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
@@ -6996,47 +6994,47 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>480</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>342</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>481</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>482</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
@@ -7046,27 +7044,27 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>403</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>306</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>367</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
@@ -7076,202 +7074,202 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>486</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>487</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>425</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>488</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>284</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>490</v>
+        <v>339</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>491</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>280</v>
+        <v>413</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>347</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>493</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>281</v>
+        <v>415</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>416</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -7281,47 +7279,47 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>418</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>310</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>290</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
@@ -7331,17 +7329,17 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>495</v>
+        <v>356</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>405</v>
+        <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
@@ -7351,87 +7349,87 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>497</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>437</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>292</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>350</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>512</v>
+        <v>427</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>325</v>
+        <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>419</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>299</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -7451,27 +7449,27 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>502</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>338</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
@@ -7481,22 +7479,22 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>504</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>360</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
@@ -7506,32 +7504,32 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>506</v>
+        <v>330</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>330</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>438</v>
+        <v>506</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>394</v>
+        <v>507</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
@@ -7541,22 +7539,22 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>509</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
@@ -7566,42 +7564,49 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>510</v>
+        <v>361</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>293</v>
+        <v>510</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
         <v>319</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A244">
-    <sortCondition ref="A2:A244"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A243">
+    <sortCondition ref="A2:A243"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:D334" xr:uid="{A359C891-F9CA-4B9D-AC49-AB1E7E955135}"/>
+    </customSheetView>
+    <customSheetView guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:D334" xr:uid="{3FD39756-B339-406C-B87A-6C144471D4C8}"/>
+    </customSheetView>
+    <customSheetView guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:D334" xr:uid="{1725226E-84C0-436B-AD4A-93D6CBE5816D}"/>
+    </customSheetView>
     <customSheetView guid="{ADB5F798-9B33-46ED-813A-8874D882110B}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334">
+      <autoFilter ref="A1:D334" xr:uid="{DBA8D433-C8B0-4B1D-BEF9-9D0E26F28EA1}">
         <filterColumn colId="3">
           <filters>
             <filter val="Sim. Eu tenho disponibilidade para avaliar os projetos de pesquisa do IFMA."/>
@@ -7609,20 +7614,8 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{CA496FFB-694F-49A0-A4B3-8377D199B898}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334"/>
-    </customSheetView>
-    <customSheetView guid="{312FCE6F-1B75-4155-8869-7AF19FCC01E7}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334"/>
-    </customSheetView>
-    <customSheetView guid="{B537ACDA-06F7-4B88-8897-16E39670631A}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:D334"/>
-    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="A2:A235">
+  <conditionalFormatting sqref="A2:A234">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>#REF!="Não. Neste momento não terei disponibilidade para avaliar os projetos de pesquisa do IFMA."</formula>
     </cfRule>
